--- a/SPPSApi/Doc/Template/FS0625_Data.xlsx
+++ b/SPPSApi/Doc/Template/FS0625_Data.xlsx
@@ -143,9 +143,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -449,92 +454,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.90625" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="1"/>
-    <col min="6" max="6" width="13.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="12.54296875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="1"/>
-    <col min="12" max="12" width="16" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.1796875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6328125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="1"/>
-    <col min="16" max="16" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="15.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="2"/>
+    <col min="6" max="6" width="13.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" style="2" customWidth="1"/>
+    <col min="9" max="10" width="12.54296875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="2"/>
+    <col min="12" max="12" width="16" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.1796875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.6328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" style="2"/>
+    <col min="16" max="16" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.1796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/SPPSApi/Doc/Template/FS0625_Data.xlsx
+++ b/SPPSApi/Doc/Template/FS0625_Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$B$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -455,7 +455,7 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -548,7 +548,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576 H2:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/SPPSApi/Doc/Template/FS0625_Data.xlsx
+++ b/SPPSApi/Doc/Template/FS0625_Data.xlsx
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单预计发行日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单预计纳入日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,6 +96,10 @@
   </si>
   <si>
     <t>实际纳入数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单发行日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +455,7 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -518,31 +518,31 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/SPPSApi/Doc/Template/FS0625_Data.xlsx
+++ b/SPPSApi/Doc/Template/FS0625_Data.xlsx
@@ -10,14 +10,14 @@
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$C$1</definedName>
   </definedNames>
-  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>工区</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,10 @@
   </si>
   <si>
     <t>订单发行日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -461,94 +465,98 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="15.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1796875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="2"/>
-    <col min="6" max="6" width="13.81640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.6328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" style="2" customWidth="1"/>
-    <col min="9" max="10" width="12.54296875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="2"/>
-    <col min="12" max="12" width="16" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.1796875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="17.6328125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="2"/>
-    <col min="16" max="16" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="17.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.1796875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="15.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="2"/>
+    <col min="7" max="7" width="13.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="12.54296875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="2"/>
+    <col min="13" max="13" width="16" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.1796875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.6328125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="8.7265625" style="2"/>
+    <col min="17" max="17" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.1796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
